--- a/mcmaster_excel/Brass_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Brass_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.116"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>94070A031</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$10.05</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Brass</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>94070A035</t>
+          <t>94070A031</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>$10.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>94070A039</t>
+          <t>94070A035</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -690,12 +658,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.142"</t>
+          <t>0.116"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.053"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -715,22 +683,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>94070A043</t>
+          <t>94070A039</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1-64</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>94070A047</t>
+          <t>94070A043</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>94070A051</t>
+          <t>94070A047</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -876,17 +844,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>0.142"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.053"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -901,22 +869,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94070A074</t>
+          <t>94070A051</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1-64</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>94070A076</t>
+          <t>94070A074</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>94070A077</t>
+          <t>94070A076</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1092,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>94070A079</t>
+          <t>94070A077</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>94070A081</t>
+          <t>94070A079</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>94070A084</t>
+          <t>94070A081</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1248,12 +1216,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1278,17 +1246,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>94070A105</t>
+          <t>94070A084</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>94070A106</t>
+          <t>94070A105</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94070A107</t>
+          <t>94070A106</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94070A108</t>
+          <t>94070A107</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>94070A110</t>
+          <t>94070A108</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1588,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>94070A112</t>
+          <t>94070A110</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>94070A113</t>
+          <t>94070A112</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>94070A115</t>
+          <t>94070A113</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1744,17 +1712,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.245"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.089"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1774,17 +1742,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>94070A124</t>
+          <t>94070A115</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5-40</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>94070A128</t>
+          <t>94070A124</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94070A131</t>
+          <t>94070A128</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1930,12 +1898,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.245"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.089"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1960,17 +1928,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>94070A142</t>
+          <t>94070A131</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>15.33</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>94070A144</t>
+          <t>94070A142</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>94070A145</t>
+          <t>94070A144</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>94070A146</t>
+          <t>94070A145</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>94070A148</t>
+          <t>94070A146</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>94070A150</t>
+          <t>94070A148</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2332,12 +2300,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>94070A151</t>
+          <t>94070A150</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2389,17 +2357,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>94070A153</t>
+          <t>94070A151</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>19.15</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>94070A155</t>
+          <t>94070A153</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2518,12 +2486,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>94070A157</t>
+          <t>94070A155</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2575,17 +2543,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>94070A159</t>
+          <t>94070A157</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2612,12 +2580,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2637,22 +2605,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>94070A190</t>
+          <t>94070A159</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2704,12 +2672,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>94070A191</t>
+          <t>94070A190</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2766,12 +2734,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>94070A192</t>
+          <t>94070A191</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2823,17 +2791,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>94070A194</t>
+          <t>94070A192</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2890,12 +2858,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>94070A196</t>
+          <t>94070A194</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2912,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>94070A197</t>
+          <t>94070A196</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3014,12 +2982,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>94070A199</t>
+          <t>94070A197</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3071,17 +3039,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>94070A201</t>
+          <t>94070A199</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>94070A203</t>
+          <t>94070A201</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3200,12 +3168,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>94070A205</t>
+          <t>94070A203</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3222,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3232,12 +3200,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3257,22 +3225,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>94070A236</t>
+          <t>94070A205</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3284,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3324,12 +3292,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>94070A238</t>
+          <t>94070A236</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3346,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3386,12 +3354,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>94070A240</t>
+          <t>94070A238</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3408,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3448,12 +3416,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>94070A242</t>
+          <t>94070A240</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3470,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3510,12 +3478,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>94070A244</t>
+          <t>94070A242</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3532,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3567,17 +3535,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>94070A245</t>
+          <t>94070A244</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3594,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3634,12 +3602,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>94070A247</t>
+          <t>94070A245</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3656,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3696,12 +3664,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>94070A249</t>
+          <t>94070A247</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3718,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3758,12 +3726,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>94070A251</t>
+          <t>94070A249</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3780,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3815,17 +3783,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>94070A255</t>
+          <t>94070A251</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3842,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3877,22 +3845,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>94070A824</t>
+          <t>94070A255</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3904,7 +3872,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3944,12 +3912,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>94070A825</t>
+          <t>94070A824</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3966,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4006,12 +3974,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>94070A826</t>
+          <t>94070A825</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4028,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4068,12 +4036,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>94070A827</t>
+          <t>94070A826</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4090,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4130,12 +4098,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>94070A829</t>
+          <t>94070A827</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4152,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4192,12 +4160,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>94070A830</t>
+          <t>94070A829</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4214,7 +4182,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4249,17 +4217,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>94070A831</t>
+          <t>94070A830</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4276,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4316,12 +4284,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>94070A833</t>
+          <t>94070A831</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4338,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4378,12 +4346,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>94070A835</t>
+          <t>94070A833</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4400,7 +4368,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4440,12 +4408,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>94070A836</t>
+          <t>94070A835</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4462,7 +4430,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4497,17 +4465,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>94070A838</t>
+          <t>94070A836</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4524,7 +4492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4534,17 +4502,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4559,22 +4527,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>94070A535</t>
+          <t>94070A838</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4586,7 +4554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4626,12 +4594,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>94070A537</t>
+          <t>94070A535</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4648,7 +4616,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4688,12 +4656,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>94070A539</t>
+          <t>94070A537</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4710,7 +4678,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4750,12 +4718,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>94070A540</t>
+          <t>94070A539</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4772,7 +4740,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4807,17 +4775,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>94070A542</t>
+          <t>94070A540</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4834,7 +4802,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4874,12 +4842,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>94070A544</t>
+          <t>94070A542</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4896,7 +4864,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4936,12 +4904,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>94070A546</t>
+          <t>94070A544</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4958,60 +4926,122 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>94070A546</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>94070A550</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>12.87</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>Brass</t>
         </is>
